--- a/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7408286339340321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9523511996883405</v>
+        <v>0.9523511996883404</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7786101737178697</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6872248972675048</v>
+        <v>0.6896878433431625</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.721992846853883</v>
+        <v>0.7220208029823106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.704953193521019</v>
+        <v>0.7065279203655198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9278002942973618</v>
+        <v>0.9303763683297228</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7454986427440833</v>
+        <v>0.7475349006007515</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7960815040962889</v>
+        <v>0.7961339843111963</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7252846617301955</v>
+        <v>0.7199776655478984</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.946577987797195</v>
+        <v>0.9464451608071407</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.726121639993359</v>
+        <v>0.7247884898741489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7692312756402933</v>
+        <v>0.7671120406532658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7244532996595654</v>
+        <v>0.7252500131612645</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9430191646342406</v>
+        <v>0.9438272423941566</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7540852843733734</v>
+        <v>0.7581257505295971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7904641539642142</v>
+        <v>0.7872840444389041</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7725535919813256</v>
+        <v>0.7723839803925604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9684936316743187</v>
+        <v>0.9673183732216091</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8087741247211477</v>
+        <v>0.8083312867375978</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8523970940936687</v>
+        <v>0.8564985084818691</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7890086855787579</v>
+        <v>0.7879576541879986</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9707753917398447</v>
+        <v>0.9705899069446674</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7728403657820438</v>
+        <v>0.7717821154505842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8127243954816379</v>
+        <v>0.8140182821532165</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7711729508155017</v>
+        <v>0.7705577869009056</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9656404127288245</v>
+        <v>0.9661272753868962</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7188685385071667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9552264080667909</v>
+        <v>0.9552264080667908</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.687604351797321</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5870554382334844</v>
+        <v>0.5901045895089707</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6793367478091121</v>
+        <v>0.6778391312060791</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6881623493776781</v>
+        <v>0.6871384311403621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9377261248039858</v>
+        <v>0.938847305460239</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6553909080771403</v>
+        <v>0.6568493991439522</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7455501529481329</v>
+        <v>0.7438281035162647</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7388661025920207</v>
+        <v>0.7410899509412432</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9613910286777828</v>
+        <v>0.9623981393853235</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6335478272355805</v>
+        <v>0.6327918377558769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7204898772726731</v>
+        <v>0.7197574041943214</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7229057346422154</v>
+        <v>0.7223278050240103</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9536032601825933</v>
+        <v>0.9536291157587915</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6551573740904181</v>
+        <v>0.6531298317632573</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.735412448773371</v>
+        <v>0.7349946468778711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7487894433412244</v>
+        <v>0.7463833834832106</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9688248942177942</v>
+        <v>0.9680671175154808</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7176853465520757</v>
+        <v>0.7169010410089061</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8009505867963617</v>
+        <v>0.7992615825192777</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.792293615803326</v>
+        <v>0.7928931695937573</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9796897578899716</v>
+        <v>0.9809967847948355</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6769447184818943</v>
+        <v>0.6772630426545204</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7594593456296492</v>
+        <v>0.7588550049213952</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7621733615752543</v>
+        <v>0.7627239949903103</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9715501979018826</v>
+        <v>0.9715170617667989</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.7301677608239036</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9389627536815746</v>
+        <v>0.9389627536815743</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.642655628368588</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5416445312618657</v>
+        <v>0.5387638772216764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6216147556563794</v>
+        <v>0.626006582995438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6340240782320764</v>
+        <v>0.6323415912465742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.905195018721528</v>
+        <v>0.904770410663525</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6701515352790856</v>
+        <v>0.6691541769857589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7134328572550248</v>
+        <v>0.7067766872290279</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.697782013667289</v>
+        <v>0.6950677734221237</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9189111028870457</v>
+        <v>0.9159479556231843</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6164592116836582</v>
+        <v>0.6160214991657263</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6757402473874389</v>
+        <v>0.678829507960901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.677190852808755</v>
+        <v>0.6731556569028146</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.916497376718401</v>
+        <v>0.9195117017799461</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6181572773749069</v>
+        <v>0.6150976138963988</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.695170601689576</v>
+        <v>0.6970221823103048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7061782682056187</v>
+        <v>0.7054483249549549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9515548317248967</v>
+        <v>0.9487594263601999</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.738826865393153</v>
+        <v>0.7372758372254656</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7762409490803756</v>
+        <v>0.7748737447315645</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7604242367897025</v>
+        <v>0.7613130461881693</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.955114001894062</v>
+        <v>0.9539503642955708</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.667740103841537</v>
+        <v>0.6695688545301699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7246251260203682</v>
+        <v>0.7264492245636374</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7228623290269539</v>
+        <v>0.7218746893400829</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.947748313831678</v>
+        <v>0.9481659090200911</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7590794131974488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9359167956403261</v>
+        <v>0.9359167956403263</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6913342609291285</v>
@@ -1093,7 +1093,7 @@
         <v>0.8253342029900246</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9546746327134989</v>
+        <v>0.9546746327134992</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6544736180282541</v>
@@ -1105,7 +1105,7 @@
         <v>0.7939152267723077</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9458723973941543</v>
+        <v>0.9458723973941545</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5808505526338459</v>
+        <v>0.5832568507948234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6955680922136598</v>
+        <v>0.691445113836256</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7301528340904067</v>
+        <v>0.7291965207280673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9169693443364598</v>
+        <v>0.9171879352487264</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.662384371384462</v>
+        <v>0.6641817088619367</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8078085304279566</v>
+        <v>0.8088535990689397</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7992286837578676</v>
+        <v>0.7977841279260179</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9420583748327436</v>
+        <v>0.9386913233281742</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.632943903551822</v>
+        <v>0.6340303367449059</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7615696847364596</v>
+        <v>0.761558879325825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7746914936531566</v>
+        <v>0.7760997342658077</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.934589879978088</v>
+        <v>0.9353427650829759</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6416615991021305</v>
+        <v>0.6434081674482155</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7533198088172258</v>
+        <v>0.7514329852976187</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7859240434516559</v>
+        <v>0.7835449178923349</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9506940975830835</v>
+        <v>0.9513746446059058</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7216252004072321</v>
+        <v>0.7191675050320617</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8566240457293979</v>
+        <v>0.8559138859109542</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8468111104086223</v>
+        <v>0.8452710490145328</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9661688921855485</v>
+        <v>0.9647169761914365</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.675119527451883</v>
+        <v>0.6760719792070625</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7986950847606655</v>
+        <v>0.7996978698796597</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8114256831393575</v>
+        <v>0.8102786145932377</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9546016697122649</v>
+        <v>0.9555501515137794</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.7490856667729355</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9507364393368332</v>
+        <v>0.9507364393368331</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6969721790471286</v>
+        <v>0.6952862571398259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7060988334748287</v>
+        <v>0.7062590082952122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9319870849755064</v>
+        <v>0.933114333370953</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7818896786822317</v>
+        <v>0.7818717245024267</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7602095461874366</v>
+        <v>0.7587026461628381</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9509075415943987</v>
+        <v>0.9508182653074082</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7444752489769761</v>
+        <v>0.7433835899677026</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7386060304800989</v>
+        <v>0.7381901090429763</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9450836908993709</v>
+        <v>0.9454715237452681</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7279701507878756</v>
+        <v>0.7266359960446286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7385782521067578</v>
+        <v>0.7374432492166588</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9511209811416641</v>
+        <v>0.9517132989287185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8090587413278787</v>
+        <v>0.8097926177105443</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7880286629912968</v>
+        <v>0.7887100599667769</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.963511874239131</v>
+        <v>0.9635685045573145</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7656742497742314</v>
+        <v>0.764857777511878</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7592553431749243</v>
+        <v>0.760493680271219</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9559943003090421</v>
+        <v>0.9561209057931217</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>476942</v>
+        <v>478652</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>507126</v>
+        <v>507146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>472831</v>
+        <v>473887</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>639124</v>
+        <v>640898</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>513165</v>
+        <v>514566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>554909</v>
+        <v>554945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>485900</v>
+        <v>482345</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>692886</v>
+        <v>692788</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1003764</v>
+        <v>1001921</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1076499</v>
+        <v>1073533</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>971254</v>
+        <v>972322</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1339889</v>
+        <v>1341037</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>523344</v>
+        <v>526148</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>555220</v>
+        <v>552987</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>518173</v>
+        <v>518059</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>667156</v>
+        <v>666346</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>556720</v>
+        <v>556416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>594163</v>
+        <v>597022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>528592</v>
+        <v>527888</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>710598</v>
+        <v>710462</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1068346</v>
+        <v>1066883</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1137366</v>
+        <v>1139176</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1033889</v>
+        <v>1033064</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1372030</v>
+        <v>1372722</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>564630</v>
+        <v>567563</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>688777</v>
+        <v>687258</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>702851</v>
+        <v>701805</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>982655</v>
+        <v>983830</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>633981</v>
+        <v>635392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>767245</v>
+        <v>765473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>769765</v>
+        <v>772082</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1027511</v>
+        <v>1028587</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1222198</v>
+        <v>1220740</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1471957</v>
+        <v>1470461</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1491474</v>
+        <v>1490281</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2018480</v>
+        <v>2018534</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>630130</v>
+        <v>628180</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>745632</v>
+        <v>745208</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>764772</v>
+        <v>762315</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1015244</v>
+        <v>1014450</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>694241</v>
+        <v>693482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>824257</v>
+        <v>822519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>825427</v>
+        <v>826052</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1047068</v>
+        <v>1048465</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1305916</v>
+        <v>1306530</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1551572</v>
+        <v>1550337</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1572489</v>
+        <v>1573625</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2056468</v>
+        <v>2056398</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>367511</v>
+        <v>365556</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>469654</v>
+        <v>472972</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>475124</v>
+        <v>473864</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>726938</v>
+        <v>726597</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>458277</v>
+        <v>457595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>553705</v>
+        <v>548539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>543251</v>
+        <v>541137</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>746394</v>
+        <v>743987</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>839833</v>
+        <v>839237</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1034998</v>
+        <v>1039730</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1034692</v>
+        <v>1028527</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1480448</v>
+        <v>1485317</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>419425</v>
+        <v>417349</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>525228</v>
+        <v>526627</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>529195</v>
+        <v>528648</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>764168</v>
+        <v>761923</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>505240</v>
+        <v>504179</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>602451</v>
+        <v>601390</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>592020</v>
+        <v>592712</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>775800</v>
+        <v>774855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>909696</v>
+        <v>912187</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1109873</v>
+        <v>1112667</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1104474</v>
+        <v>1102965</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1530928</v>
+        <v>1531603</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>546806</v>
+        <v>549071</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>659217</v>
+        <v>655310</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>683219</v>
+        <v>682324</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>906171</v>
+        <v>906387</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>687960</v>
+        <v>689827</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>845141</v>
+        <v>846235</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>829185</v>
+        <v>827686</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1052950</v>
+        <v>1049187</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1253229</v>
+        <v>1255380</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1518535</v>
+        <v>1518513</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1528622</v>
+        <v>1531401</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1968186</v>
+        <v>1969771</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>604053</v>
+        <v>605697</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>713951</v>
+        <v>712162</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>735405</v>
+        <v>733179</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>939499</v>
+        <v>940171</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>749489</v>
+        <v>746936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>896213</v>
+        <v>895470</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>878550</v>
+        <v>876953</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1079899</v>
+        <v>1078276</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1336737</v>
+        <v>1338623</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1592561</v>
+        <v>1594561</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1601106</v>
+        <v>1598843</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2010329</v>
+        <v>2012327</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2383346</v>
+        <v>2377581</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2384617</v>
+        <v>2385157</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3288115</v>
+        <v>3292092</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2774518</v>
+        <v>2774454</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2681855</v>
+        <v>2676539</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3547584</v>
+        <v>3547251</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5187540</v>
+        <v>5179933</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5100042</v>
+        <v>5097170</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6860177</v>
+        <v>6862992</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2489346</v>
+        <v>2484783</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2494305</v>
+        <v>2490472</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3355620</v>
+        <v>3357710</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2870926</v>
+        <v>2873530</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2779995</v>
+        <v>2782399</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3594607</v>
+        <v>3594819</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5335256</v>
+        <v>5329566</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5242625</v>
+        <v>5251175</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6939375</v>
+        <v>6940294</v>
       </c>
     </row>
     <row r="24">
